--- a/your_top_songs_2020.xlsx
+++ b/your_top_songs_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Python D1\PythonD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2A1521-7DB8-4DEC-99A2-F0B0CB0D17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDDDE6-6D54-4DE6-9CEE-EB9C8B95DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
